--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2601789.33693176</v>
+        <v>2599245.114995734</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283167</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.8333590606439</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.2964914343831</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.8814412733154</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.62893363309613</v>
       </c>
       <c r="H4" t="n">
-        <v>18.73857452952545</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>352.5059324121721</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>68.09937260325975</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>9.896747937862438</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>106.4566232941654</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>76.78432729643986</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>74.03593649473848</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>78.0475511709805</v>
+        <v>347.1316352149003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719221</v>
+        <v>55.73629798766591</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155209</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>80.93763445551681</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.007734381269626</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685653</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418047</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>173.3007374095939</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.483705355072</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101031</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.906592471262</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892374</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>100.9410961977651</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,16 +2087,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472458</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673059</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788183083</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.839588425939253</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505239</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.3628934706928</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="C2" t="n">
-        <v>170.3628934706928</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="D2" t="n">
-        <v>170.3628934706928</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4337,43 +4337,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>590.2069027719632</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201474</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201474</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036626</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036626</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871777</v>
+        <v>400.7871177554785</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.3628934706928</v>
+        <v>400.7871177554785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>750.10234866528</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>750.10234866528</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.10234866528</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.8429936158254</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="C4" t="n">
-        <v>181.8429936158254</v>
+        <v>68.16258599663502</v>
       </c>
       <c r="D4" t="n">
-        <v>181.8429936158254</v>
+        <v>68.16258599663502</v>
       </c>
       <c r="E4" t="n">
-        <v>33.92990003343232</v>
+        <v>68.16258599663502</v>
       </c>
       <c r="F4" t="n">
-        <v>33.92990003343232</v>
+        <v>68.16258599663502</v>
       </c>
       <c r="G4" t="n">
-        <v>33.92990003343232</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>43.1759045242809</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777543</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143045</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="U4" t="n">
-        <v>750.10234866528</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487952</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="W4" t="n">
-        <v>560.6825636487952</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="X4" t="n">
-        <v>371.2627786323103</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.8429936158254</v>
+        <v>237.0987689245419</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860.8958953895715</v>
+        <v>1222.299331331045</v>
       </c>
       <c r="C5" t="n">
-        <v>491.9333784491598</v>
+        <v>1222.299331331045</v>
       </c>
       <c r="D5" t="n">
-        <v>491.9333784491598</v>
+        <v>864.0336327242945</v>
       </c>
       <c r="E5" t="n">
-        <v>491.9333784491598</v>
+        <v>864.0336327242945</v>
       </c>
       <c r="F5" t="n">
-        <v>484.9878776999563</v>
+        <v>453.047727934687</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>440.6358706669656</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4598,19 +4598,19 @@
         <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003256</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="V5" t="n">
-        <v>1213.664550659686</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="W5" t="n">
-        <v>860.8958953895715</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="X5" t="n">
-        <v>860.8958953895715</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="Y5" t="n">
-        <v>860.8958953895715</v>
+        <v>1222.299331331045</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302.6601121281534</v>
+        <v>300.5953520245064</v>
       </c>
       <c r="C6" t="n">
-        <v>302.6601121281534</v>
+        <v>300.5953520245064</v>
       </c>
       <c r="D6" t="n">
-        <v>302.6601121281534</v>
+        <v>300.5953520245064</v>
       </c>
       <c r="E6" t="n">
-        <v>302.6601121281534</v>
+        <v>141.3578970190509</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>141.3578970190509</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4650,16 +4650,16 @@
         <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>597.8668170591302</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>861.8063485546174</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1147.14021898795</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1385.945170739408</v>
+        <v>1203.783415967064</v>
       </c>
       <c r="P6" t="n">
         <v>1621.182402866226</v>
@@ -4674,22 +4674,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1435.777792927613</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1207.661376058584</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>972.5092678268418</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>718.2719110986402</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="X6" t="n">
-        <v>510.4204108931073</v>
+        <v>676.5709878095283</v>
       </c>
       <c r="Y6" t="n">
-        <v>302.6601121281534</v>
+        <v>468.8106890445744</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>890.6906211270904</v>
+        <v>259.2022312070121</v>
       </c>
       <c r="C7" t="n">
-        <v>721.7544381991835</v>
+        <v>259.2022312070121</v>
       </c>
       <c r="D7" t="n">
-        <v>571.6377987868477</v>
+        <v>259.2022312070121</v>
       </c>
       <c r="E7" t="n">
-        <v>423.7247052044546</v>
+        <v>111.289137624619</v>
       </c>
       <c r="F7" t="n">
-        <v>276.8347577065442</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>108.5129852996681</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.13166510086</v>
+        <v>661.643275180782</v>
       </c>
       <c r="X7" t="n">
-        <v>1293.13166510086</v>
+        <v>661.643275180782</v>
       </c>
       <c r="Y7" t="n">
-        <v>1072.33908595733</v>
+        <v>440.8506960372519</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>130.1369575505391</v>
+        <v>760.2047612521585</v>
       </c>
       <c r="C8" t="n">
-        <v>130.1369575505391</v>
+        <v>760.2047612521585</v>
       </c>
       <c r="D8" t="n">
-        <v>130.1369575505391</v>
+        <v>401.939062645408</v>
       </c>
       <c r="E8" t="n">
-        <v>130.1369575505391</v>
+        <v>401.939062645408</v>
       </c>
       <c r="F8" t="n">
-        <v>123.1914568013356</v>
+        <v>394.9935618962045</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761792</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761792</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761792</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872691</v>
+        <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158963</v>
+        <v>376.295250515901</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985217</v>
+        <v>685.3852714985294</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556935</v>
+        <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415477</v>
+        <v>1447.259827415491</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975096</v>
+        <v>1798.680568975113</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631072</v>
+        <v>2064.109040631091</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208109</v>
+        <v>2215.26202220813</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380896</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380896</v>
+        <v>2086.57366065015</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380896</v>
+        <v>1876.578506759164</v>
       </c>
       <c r="U8" t="n">
-        <v>1964.173430465237</v>
+        <v>1876.578506759164</v>
       </c>
       <c r="V8" t="n">
-        <v>1633.110543121667</v>
+        <v>1876.578506759164</v>
       </c>
       <c r="W8" t="n">
-        <v>1280.341887851552</v>
+        <v>1523.80985148905</v>
       </c>
       <c r="X8" t="n">
-        <v>906.8761295904726</v>
+        <v>1150.34409322797</v>
       </c>
       <c r="Y8" t="n">
-        <v>516.7367976146609</v>
+        <v>760.2047612521585</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.298865693644</v>
+        <v>583.2797313720844</v>
       </c>
       <c r="C9" t="n">
-        <v>756.845836412517</v>
+        <v>408.8267020909574</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>259.8922924297061</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>100.6548374242506</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>100.6548374242506</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>100.6548374242506</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676144</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761792</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="J9" t="n">
-        <v>92.5640599542397</v>
+        <v>217.3941849412458</v>
       </c>
       <c r="K9" t="n">
-        <v>462.6427349937549</v>
+        <v>377.9450376513134</v>
       </c>
       <c r="L9" t="n">
-        <v>724.8457108234297</v>
+        <v>917.7777468600395</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473533</v>
+        <v>1243.113120510146</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.535762314285</v>
+        <v>1591.4677983509</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729435</v>
+        <v>1887.924476766052</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996762</v>
+        <v>2106.524031033381</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380896</v>
+        <v>2202.732847559026</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380896</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472963</v>
+        <v>2079.218696472985</v>
       </c>
       <c r="T9" t="n">
-        <v>2079.218696472963</v>
+        <v>1884.596484064442</v>
       </c>
       <c r="U9" t="n">
-        <v>1851.118544731104</v>
+        <v>1656.496332322583</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.3633584124</v>
+        <v>1421.344224090841</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.126001684199</v>
+        <v>1167.106867362639</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.274501478666</v>
+        <v>959.2553671571063</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.514202713712</v>
+        <v>751.4950683921525</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.0270743376934</v>
+        <v>161.1396779920979</v>
       </c>
       <c r="C10" t="n">
-        <v>452.0908914097865</v>
+        <v>161.1396779920979</v>
       </c>
       <c r="D10" t="n">
-        <v>301.9742519974508</v>
+        <v>161.1396779920979</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0611584150577</v>
+        <v>161.1396779920979</v>
       </c>
       <c r="F10" t="n">
-        <v>154.0611584150577</v>
+        <v>161.1396779920979</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150577</v>
+        <v>161.1396779920979</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150577</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761792</v>
+        <v>44.35554652761838</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691944</v>
+        <v>60.95254262692045</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274014</v>
+        <v>218.0633423274033</v>
       </c>
       <c r="L10" t="n">
-        <v>474.637509191841</v>
+        <v>474.6375091918442</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921674</v>
+        <v>755.5481168921717</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629313</v>
+        <v>1035.213914629319</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546124</v>
+        <v>1277.514248546131</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659233</v>
+        <v>1461.323360659241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155961</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155961</v>
+        <v>1396.807701620023</v>
       </c>
       <c r="S10" t="n">
-        <v>1306.288073426865</v>
+        <v>1396.807701620023</v>
       </c>
       <c r="T10" t="n">
-        <v>1306.288073426865</v>
+        <v>1396.807701620023</v>
       </c>
       <c r="U10" t="n">
-        <v>1306.288073426865</v>
+        <v>1107.682380208715</v>
       </c>
       <c r="V10" t="n">
-        <v>1306.288073426865</v>
+        <v>852.9978920028283</v>
       </c>
       <c r="W10" t="n">
-        <v>1016.870903389904</v>
+        <v>563.5807219658677</v>
       </c>
       <c r="X10" t="n">
-        <v>841.8196534812236</v>
+        <v>563.5807219658677</v>
       </c>
       <c r="Y10" t="n">
-        <v>621.0270743376934</v>
+        <v>342.7881428223376</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851853</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851853</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832681</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832681</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855622</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.24068819982</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993933</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956973</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058955</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154251</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5306,22 +5306,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708865</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429796</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429798</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429798</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518381</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541322</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.27973288552</v>
+        <v>1755.43155760231</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679634</v>
+        <v>1500.747069396424</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642673</v>
+        <v>1211.329899359463</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744656</v>
+        <v>983.3403484614455</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011261</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5543,19 +5543,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429798</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429798</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764187997</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>402.724593490893</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908932</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908934</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908935</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057736</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533434</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327547</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290586</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925694</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490394</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188003</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908935</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908935</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908935</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908935</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.72455551139</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166295</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189236</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533434</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327547</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925698</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490398</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1018.438627038651</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>849.5024441107445</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>699.3858046984087</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>551.4727111160156</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>404.5827636181052</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>237.3866643329852</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>95.67483317518324</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,13 +6549,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142526</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,7 +7679,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>42.56275186471065</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777618</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>209.9071855013448</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>25.90541300402714</v>
       </c>
       <c r="P6" t="n">
-        <v>63.54370825566502</v>
+        <v>247.5454807529823</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.6442649792416</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>280.4340741202518</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688361</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>9.131767663140351</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038248</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543297</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.494940240504</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>77.24602870709306</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.2291039219381</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392193846</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>79.42624789262628</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016455</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172165</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>804186.3119174677</v>
+        <v>804186.3119174679</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780208.0369357773</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357771</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.415891427</v>
@@ -26323,19 +26323,19 @@
         <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520047</v>
@@ -26350,10 +26350,10 @@
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778327</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.791929686</v>
+        <v>138712.7919296915</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745793</v>
+        <v>589678.792174574</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153564</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484181</v>
+        <v>33617.87336484324</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167286</v>
+        <v>154073.8510167271</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296201</v>
+        <v>170385.5244296186</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685529</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768552</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768552</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>14216.75207685506</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969273</v>
+        <v>86168.04029969317</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269678.463704239</v>
+        <v>-269678.4637042389</v>
       </c>
       <c r="C6" t="n">
-        <v>112844.3125188445</v>
+        <v>112844.3125188441</v>
       </c>
       <c r="D6" t="n">
-        <v>261567.0592324281</v>
+        <v>261567.0592324237</v>
       </c>
       <c r="E6" t="n">
-        <v>-59300.79432333664</v>
+        <v>-59335.53224876674</v>
       </c>
       <c r="F6" t="n">
-        <v>530377.9978512425</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="G6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258069</v>
       </c>
       <c r="H6" t="n">
-        <v>530377.9978512428</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="I6" t="n">
-        <v>530377.9978512425</v>
+        <v>530343.2599258075</v>
       </c>
       <c r="J6" t="n">
-        <v>481313.0531226979</v>
+        <v>481278.3151972628</v>
       </c>
       <c r="K6" t="n">
-        <v>470130.8382597068</v>
+        <v>470096.1003342711</v>
       </c>
       <c r="L6" t="n">
-        <v>496760.124486401</v>
+        <v>496725.3865609639</v>
       </c>
       <c r="M6" t="n">
-        <v>376304.1468345142</v>
+        <v>376269.40890908</v>
       </c>
       <c r="N6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.9978512428</v>
+        <v>530343.2599258069</v>
       </c>
       <c r="P6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.2599258071</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790416</v>
+        <v>863.771786179046</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952241</v>
+        <v>554.4443315952298</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847053</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814315</v>
+        <v>113.790829681436</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626322</v>
+        <v>504.2037141626278</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132423</v>
+        <v>132.8291933132479</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044243</v>
+        <v>618.2639565044184</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132423</v>
+        <v>132.8291933132479</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044243</v>
+        <v>618.2639565044184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132423</v>
+        <v>132.8291933132479</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044243</v>
+        <v>618.2639565044184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>248.0970110116179</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0.4793217556700142</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.65174237655192</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>40.51015860120992</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.3730015696181</v>
       </c>
       <c r="H4" t="n">
-        <v>134.6950963022941</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.7394943271304</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>59.78180628287208</v>
-      </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>318.1385660527939</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>125.8336026396741</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>87.20591201366275</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>68.63672072649139</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>76.16695116918203</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>333.78273695248</v>
+        <v>64.69865290856023</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832803</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787322</v>
+        <v>76.60428439787253</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734618</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8952023520761</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.55550970952622</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155176</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>151.8629526939085</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>141.3707691608731</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305869</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>52.40891797944329</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>7.713553933517059e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.911068911754729e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.859863611268034e-11</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>6.769161292799379e-12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28807,16 +28807,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31361,7 +31361,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31394,7 +31394,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31467,13 +31467,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674536</v>
+        <v>3.472449391674554</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248685</v>
+        <v>35.56222233248704</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725327</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566369</v>
+        <v>294.7198015566385</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062201</v>
+        <v>441.7085843062224</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766799</v>
+        <v>547.9785573766827</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458719</v>
+        <v>609.731729245875</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799671</v>
+        <v>619.5978260799703</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415034</v>
+        <v>585.0686574415065</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845383</v>
+        <v>499.3425630845409</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451938</v>
+        <v>374.9854692451958</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997758</v>
+        <v>218.1262490997769</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278357</v>
+        <v>79.12844051278398</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205529</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339628</v>
+        <v>0.2777959513339643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328505</v>
+        <v>1.857924219328514</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930424</v>
+        <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986299</v>
+        <v>63.96800491986332</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743655</v>
+        <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693752</v>
+        <v>300.0140174693768</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169194</v>
+        <v>403.4058705169215</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675776</v>
+        <v>470.75562346758</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436885</v>
+        <v>483.215124043691</v>
       </c>
       <c r="O9" t="n">
-        <v>442.047434762778</v>
+        <v>442.0474347627803</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873879</v>
+        <v>354.7820379873897</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391965</v>
+        <v>237.1623968391977</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070803</v>
+        <v>115.3542774070809</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498339</v>
+        <v>34.51012749498356</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363575</v>
+        <v>7.488738410363613</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347701</v>
+        <v>0.1222318565347707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765485</v>
+        <v>1.557621253765493</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529677</v>
+        <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869295</v>
+        <v>46.84191915869319</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412198</v>
+        <v>110.1238226412203</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011172</v>
+        <v>180.9672693011181</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552795</v>
+        <v>231.5757998552806</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243477</v>
+        <v>244.164211624349</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057674</v>
+        <v>238.3585324057687</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231433</v>
+        <v>220.1626841231444</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463273</v>
+        <v>188.3872105463282</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130353</v>
+        <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658259</v>
+        <v>70.03631564658295</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516757</v>
+        <v>27.14509039516771</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543432</v>
+        <v>6.655290811543467</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629926</v>
+        <v>0.08496115929629969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068213</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068235</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
+        <v>211.707952780637</v>
+      </c>
+      <c r="M6" t="n">
+        <v>266.605587369179</v>
+      </c>
+      <c r="N6" t="n">
+        <v>288.2160307407402</v>
+      </c>
+      <c r="O6" t="n">
+        <v>267.1225359852983</v>
+      </c>
+      <c r="P6" t="n">
         <v>421.6151382819818</v>
       </c>
-      <c r="M6" t="n">
-        <v>266.6055873691791</v>
-      </c>
-      <c r="N6" t="n">
-        <v>288.2160307407401</v>
-      </c>
-      <c r="O6" t="n">
-        <v>241.2171229812711</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237.6133657846645</v>
-      </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299506</v>
+        <v>113.6738970299522</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612396</v>
+        <v>221.6187332612419</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066926</v>
+        <v>312.2121424066955</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960185992</v>
+        <v>379.3854960186023</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833762</v>
+        <v>390.1847624833794</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198167</v>
+        <v>354.9704460198197</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292688</v>
+        <v>268.1095673292713</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707443</v>
+        <v>152.6797793707463</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285643653</v>
+        <v>2.54071128564479</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769876</v>
+        <v>174.7865034481085</v>
       </c>
       <c r="K9" t="n">
-        <v>373.8168434742578</v>
+        <v>162.1725784950178</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370453</v>
+        <v>545.2855648572991</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455593</v>
+        <v>328.6215895455617</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603553</v>
+        <v>351.8734119603578</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183335</v>
+        <v>299.4511903183358</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730576</v>
+        <v>220.8076305730594</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890241</v>
+        <v>97.18062275317621</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19644325443781</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454699</v>
+        <v>16.76464252454754</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752343</v>
+        <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155956</v>
+        <v>259.1658251155968</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861883</v>
+        <v>283.7480885861895</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849961</v>
+        <v>282.4907047849973</v>
       </c>
       <c r="O10" t="n">
-        <v>244.747812037183</v>
+        <v>244.7478120371841</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112207</v>
+        <v>185.6657698112217</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134088</v>
+        <v>44.26749646134157</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394655</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37953,7 +37953,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
